--- a/src/project_excel_automation/students-result-final.xlsx
+++ b/src/project_excel_automation/students-result-final.xlsx
@@ -526,6 +526,9 @@
       <c r="I2" t="n">
         <v>295</v>
       </c>
+      <c r="J2" t="n">
+        <v>49.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,6 +560,9 @@
       <c r="I3" t="n">
         <v>355</v>
       </c>
+      <c r="J3" t="n">
+        <v>59.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -588,6 +594,9 @@
       <c r="I4" t="n">
         <v>421</v>
       </c>
+      <c r="J4" t="n">
+        <v>70.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -619,6 +628,9 @@
       <c r="I5" t="n">
         <v>323</v>
       </c>
+      <c r="J5" t="n">
+        <v>53.83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -650,6 +662,9 @@
       <c r="I6" t="n">
         <v>316</v>
       </c>
+      <c r="J6" t="n">
+        <v>52.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -681,6 +696,9 @@
       <c r="I7" t="n">
         <v>497</v>
       </c>
+      <c r="J7" t="n">
+        <v>82.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -711,6 +729,9 @@
       </c>
       <c r="I8" t="n">
         <v>538</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89.67</v>
       </c>
     </row>
   </sheetData>
